--- a/data/data_electronic_electrostatic_lumo_regression.xlsx
+++ b/data/data_electronic_electrostatic_lumo_regression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="907">
   <si>
     <t>entry</t>
   </si>
@@ -2735,306 +2735,6 @@
   </si>
   <si>
     <t>1.4188328986787506</t>
-  </si>
-  <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>2e</t>
-  </si>
-  <si>
-    <t>O=[13C]1c2ccccc2C(=O)[C@@H](CC=C)[C@]1(c3ccc(OC)cc3)(O)</t>
-  </si>
-  <si>
-    <t>IHRTUIAUWHYSLC-LETQROKVSA-N</t>
-  </si>
-  <si>
-    <t>-1.2043326131264163</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>O=[13C]1c2ccccc2C(=O)[C@H](CC=C)[C@@]1(c3ccc(OC)cc3)(O)</t>
-  </si>
-  <si>
-    <t>IHRTUIAUWHYSLC-MKPRNFLLSA-N</t>
-  </si>
-  <si>
-    <t>-3.833144241169612</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>O=[13C]1c2ccccc2[C@H](O)[C@@H](CC=C)[C@]1(c3ccc(OC)cc3)(O)</t>
-  </si>
-  <si>
-    <t>HCNMDBXOHRSASL-JCLDETSFSA-N</t>
-  </si>
-  <si>
-    <t>2.281698793239923</t>
-  </si>
-  <si>
-    <t>O=[13C]1c2ccccc2[C@@H](O)[C@@H](CC=C)[C@]1(c3ccc(OC)cc3)(O)</t>
-  </si>
-  <si>
-    <t>HCNMDBXOHRSASL-RRBHPDMCSA-N</t>
-  </si>
-  <si>
-    <t>2.4572612364496322</t>
-  </si>
-  <si>
-    <t>O=[13C]1c2ccccc2[C@H](O)[C@H](CC=C)[C@@]1(c3ccc(OC)cc3)(O)</t>
-  </si>
-  <si>
-    <t>HCNMDBXOHRSASL-BWVRAIKASA-N</t>
-  </si>
-  <si>
-    <t>0.8180869102718544</t>
-  </si>
-  <si>
-    <t>O=[13C]1c2ccccc2[C@@H](O)[C@H](CC=C)[C@@]1(c3ccc(OC)cc3)(O)</t>
-  </si>
-  <si>
-    <t>HCNMDBXOHRSASL-JLPSGUTRSA-N</t>
-  </si>
-  <si>
-    <t>0.2565692131985351</t>
-  </si>
-  <si>
-    <t>O=[13C]1[C@@H](CC=C)[C@](c2ccc(OC)cc2)(O)C(=O)c3ccccc13</t>
-  </si>
-  <si>
-    <t>IHRTUIAUWHYSLC-UWTHISFHSA-N</t>
-  </si>
-  <si>
-    <t>0.16251979833984098</t>
-  </si>
-  <si>
-    <t>O=[13C]1[C@@H](CC=C)[C@](c2ccc(OC)cc2)(O)[C@H](O)c3ccccc13</t>
-  </si>
-  <si>
-    <t>OGXJZBLGIJYBNJ-PITYHCOSSA-N</t>
-  </si>
-  <si>
-    <t>0.7566144960629329</t>
-  </si>
-  <si>
-    <t>O=[13C]1[C@@H](CC=C)[C@](c2ccc(OC)cc2)(O)[C@@H](O)c3ccccc13</t>
-  </si>
-  <si>
-    <t>OGXJZBLGIJYBNJ-IBKCEBNOSA-N</t>
-  </si>
-  <si>
-    <t>2.5065210825167754</t>
-  </si>
-  <si>
-    <t>O=[13C]1[C@H](CC=C)[C@@](c2ccc(OC)cc2)(O)C(=O)c3ccccc13</t>
-  </si>
-  <si>
-    <t>IHRTUIAUWHYSLC-OYCNNRMISA-N</t>
-  </si>
-  <si>
-    <t>-2.4785768831642656</t>
-  </si>
-  <si>
-    <t>O=[13C]1[C@H](CC=C)[C@@](c2ccc(OC)cc2)(O)[C@H](O)c3ccccc13</t>
-  </si>
-  <si>
-    <t>OGXJZBLGIJYBNJ-YIOHYXBMSA-N</t>
-  </si>
-  <si>
-    <t>-0.05071927577277702</t>
-  </si>
-  <si>
-    <t>O=[13C]1[C@H](CC=C)[C@@](c2ccc(OC)cc2)(O)[C@@H](O)c3ccccc13</t>
-  </si>
-  <si>
-    <t>OGXJZBLGIJYBNJ-QXXODUCKSA-N</t>
-  </si>
-  <si>
-    <t>-0.648143381432412</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>18 (diketone to trans-cyclohexanol)</t>
-  </si>
-  <si>
-    <t>O=[13C]1CC[C@]23C[C@H]2C(=O)C[C@]3(C)C1(C)(C)</t>
-  </si>
-  <si>
-    <t>CDZIAERYNQQTTL-MFRZQROJSA-N</t>
-  </si>
-  <si>
-    <t>-1.0548573784741064</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>18 (diketone to cis-cyclohexanol)</t>
-  </si>
-  <si>
-    <t>O=[13C]1CC[C@@]23C[C@@H]2C(=O)C[C@@]3(C)C1(C)(C)</t>
-  </si>
-  <si>
-    <t>CDZIAERYNQQTTL-GPMRVYOUSA-N</t>
-  </si>
-  <si>
-    <t>0.8919631747536858</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>18 (diketone to trans-cyclopetanol)</t>
-  </si>
-  <si>
-    <t>O=[13C]1C[C@]2(C)C(C)(C)C(=O)CC[C@@]23C[C@@H]13</t>
-  </si>
-  <si>
-    <t>CDZIAERYNQQTTL-JQEYLOQLSA-N</t>
-  </si>
-  <si>
-    <t>1.6572511866073318</t>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>18 (diketone to cis-cyclopetanol)</t>
-  </si>
-  <si>
-    <t>O=[13C]1C[C@@]2(C)C(C)(C)C(=O)CC[C@]23C[C@H]13</t>
-  </si>
-  <si>
-    <t>CDZIAERYNQQTTL-BQZGOPTGSA-N</t>
-  </si>
-  <si>
-    <t>-0.00852247809929274</t>
-  </si>
-  <si>
-    <t>x13</t>
-  </si>
-  <si>
-    <t>18 (trans-cyclohexanol to trans-cyclopetanol)</t>
-  </si>
-  <si>
-    <t>O=[13C]1C[C@]2(C)C(C)(C)[C@H](O)CC[C@@]23C[C@@H]13</t>
-  </si>
-  <si>
-    <t>HSZUCBRROMXFTP-QNNPYUMWSA-N</t>
-  </si>
-  <si>
-    <t>0.6571559920377625</t>
-  </si>
-  <si>
-    <t>x14</t>
-  </si>
-  <si>
-    <t>18 (trans-cyclohexanol to cis-cyclopetanol)</t>
-  </si>
-  <si>
-    <t>O=[13C]1C[C@@]2(C)C(C)(C)[C@@H](O)CC[C@]23C[C@H]13</t>
-  </si>
-  <si>
-    <t>HSZUCBRROMXFTP-XYSGLKTPSA-N</t>
-  </si>
-  <si>
-    <t>0.47833873710580566</t>
-  </si>
-  <si>
-    <t>x23</t>
-  </si>
-  <si>
-    <t>18 (cis-cyclohexanol to trans-cyclopetanol)</t>
-  </si>
-  <si>
-    <t>O=[13C]1C[C@]2(C)C(C)(C)[C@@H](O)CC[C@@]23C[C@@H]13</t>
-  </si>
-  <si>
-    <t>HSZUCBRROMXFTP-JJHNRALGSA-N</t>
-  </si>
-  <si>
-    <t>1.0571700027098703</t>
-  </si>
-  <si>
-    <t>x24</t>
-  </si>
-  <si>
-    <t>18 (cis-cyclohexanol to cis-cyclopetanol)</t>
-  </si>
-  <si>
-    <t>O=[13C]1C[C@@]2(C)C(C)(C)[C@H](O)CC[C@]23C[C@H]13</t>
-  </si>
-  <si>
-    <t>HSZUCBRROMXFTP-RKCYBLCYSA-N</t>
-  </si>
-  <si>
-    <t>-0.6406162212242155</t>
-  </si>
-  <si>
-    <t>x31</t>
-  </si>
-  <si>
-    <t>18 (trans-cyclopentanol to trans-cyclohexanol)</t>
-  </si>
-  <si>
-    <t>O=[13C]1CC[C@]23C[C@H]2[C@H](O)C[C@]3(C)C1(C)(C)</t>
-  </si>
-  <si>
-    <t>INJDMARMLWBWDI-SBSZUFRLSA-N</t>
-  </si>
-  <si>
-    <t>1.3572706020520857</t>
-  </si>
-  <si>
-    <t>x32</t>
-  </si>
-  <si>
-    <t>18 (trans-cyclopentanol to cis-cyclohexanol)</t>
-  </si>
-  <si>
-    <t>O=[13C]1CC[C@@]23C[C@@H]2[C@@H](O)C[C@@]3(C)C1(C)(C)</t>
-  </si>
-  <si>
-    <t>INJDMARMLWBWDI-GSTMQQRNSA-N</t>
-  </si>
-  <si>
-    <t>0.9754236070580142</t>
-  </si>
-  <si>
-    <t>x41</t>
-  </si>
-  <si>
-    <t>18 (cis-cyclopentanol to trans-cyclohexanol)</t>
-  </si>
-  <si>
-    <t>O=[13C]1CC[C@]23C[C@H]2[C@@H](O)C[C@]3(C)C1(C)(C)</t>
-  </si>
-  <si>
-    <t>INJDMARMLWBWDI-PAGHARENSA-N</t>
-  </si>
-  <si>
-    <t>-1.0335945009745604</t>
-  </si>
-  <si>
-    <t>x42</t>
-  </si>
-  <si>
-    <t>18 (cis-cyclopentanol to cis-cyclohexanol)</t>
-  </si>
-  <si>
-    <t>O=[13C]1CC[C@@]23C[C@@H]2[C@H](O)C[C@@]3(C)C1(C)(C)</t>
-  </si>
-  <si>
-    <t>INJDMARMLWBWDI-NPRYSKNASA-N</t>
-  </si>
-  <si>
-    <t>0.47254567307293804</t>
   </si>
 </sst>
 </file>
@@ -8698,918 +8398,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8534400" y="186413775"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="150" name="Picture 149" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId149"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="187680600"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="151" name="Picture 150" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId150"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="188947425"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="152" name="Picture 151" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId151"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="190214250"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="Picture 152" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId152"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="191481075"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="154" name="Picture 153" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId153"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="192747900"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="Picture 154" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId154"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="194014725"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="156" name="Picture 155" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId155"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="195281550"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="157" name="Picture 156" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId156"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="196548375"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="158" name="Picture 157" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId157"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="197815200"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="159" name="Picture 158" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId158"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="199082025"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="160" name="Picture 159" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId159"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="200348850"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="161" name="Picture 160" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId160"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="201615675"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="162" name="Picture 161" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId161"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="202882500"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="163" name="Picture 162" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId162"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="204149325"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="164" name="Picture 163" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId163"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="205416150"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="165" name="Picture 164" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId164"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="206682975"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="166" name="Picture 165" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId165"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="207949800"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="167" name="Picture 166" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId166"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="209216625"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="168" name="Picture 167" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId167"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="210483450"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="169" name="Picture 168" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId168"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="211750275"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="170" name="Picture 169" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId169"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="213017100"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="171" name="Picture 170" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId170"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="214283925"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="172" name="Picture 171" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId171"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="215550750"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="173" name="Picture 172" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId172"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="216817575"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9907,7 +8695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O173"/>
+  <dimension ref="A1:O149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16475,1062 +15263,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="100" customHeight="1">
-      <c r="A150" t="s">
-        <v>907</v>
-      </c>
-      <c r="B150" t="s">
-        <v>908</v>
-      </c>
-      <c r="C150" t="s">
-        <v>909</v>
-      </c>
-      <c r="D150" t="s">
-        <v>910</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>-3.149044955027832</v>
-      </c>
-      <c r="G150">
-        <v>-1.611965041512474</v>
-      </c>
-      <c r="H150">
-        <v>-1.413859313334021</v>
-      </c>
-      <c r="I150">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J150" t="s">
-        <v>20</v>
-      </c>
-      <c r="K150" t="s">
-        <v>911</v>
-      </c>
-      <c r="L150" t="s">
-        <v>20</v>
-      </c>
-      <c r="M150" t="s">
-        <v>911</v>
-      </c>
-      <c r="N150" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" ht="100" customHeight="1">
-      <c r="A151" t="s">
-        <v>912</v>
-      </c>
-      <c r="B151" t="s">
-        <v>908</v>
-      </c>
-      <c r="C151" t="s">
-        <v>913</v>
-      </c>
-      <c r="D151" t="s">
-        <v>914</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>-4.335203053439799</v>
-      </c>
-      <c r="G151">
-        <v>-1.731196957478631</v>
-      </c>
-      <c r="H151">
-        <v>-2.737280926999096</v>
-      </c>
-      <c r="I151">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J151" t="s">
-        <v>20</v>
-      </c>
-      <c r="K151" t="s">
-        <v>915</v>
-      </c>
-      <c r="L151" t="s">
-        <v>20</v>
-      </c>
-      <c r="M151" t="s">
-        <v>915</v>
-      </c>
-      <c r="N151" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" ht="100" customHeight="1">
-      <c r="A152" t="s">
-        <v>916</v>
-      </c>
-      <c r="B152" t="s">
-        <v>908</v>
-      </c>
-      <c r="C152" t="s">
-        <v>917</v>
-      </c>
-      <c r="D152" t="s">
-        <v>918</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>-2.175403721462524</v>
-      </c>
-      <c r="G152">
-        <v>-0.8005446172454729</v>
-      </c>
-      <c r="H152">
-        <v>0.2871104352000083</v>
-      </c>
-      <c r="I152">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J152" t="s">
-        <v>20</v>
-      </c>
-      <c r="K152" t="s">
-        <v>919</v>
-      </c>
-      <c r="L152" t="s">
-        <v>20</v>
-      </c>
-      <c r="M152" t="s">
-        <v>919</v>
-      </c>
-      <c r="N152" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" ht="100" customHeight="1">
-      <c r="A153" t="s">
-        <v>916</v>
-      </c>
-      <c r="B153" t="s">
-        <v>908</v>
-      </c>
-      <c r="C153" t="s">
-        <v>920</v>
-      </c>
-      <c r="D153" t="s">
-        <v>921</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>-2.249838244662488</v>
-      </c>
-      <c r="G153">
-        <v>-0.4633828368476844</v>
-      </c>
-      <c r="H153">
-        <v>0.199945621211892</v>
-      </c>
-      <c r="I153">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J153" t="s">
-        <v>20</v>
-      </c>
-      <c r="K153" t="s">
-        <v>922</v>
-      </c>
-      <c r="L153" t="s">
-        <v>20</v>
-      </c>
-      <c r="M153" t="s">
-        <v>922</v>
-      </c>
-      <c r="N153" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" ht="100" customHeight="1">
-      <c r="A154" t="s">
-        <v>916</v>
-      </c>
-      <c r="B154" t="s">
-        <v>908</v>
-      </c>
-      <c r="C154" t="s">
-        <v>923</v>
-      </c>
-      <c r="D154" t="s">
-        <v>924</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>-4.398587939600889</v>
-      </c>
-      <c r="G154">
-        <v>0.351181551733335</v>
-      </c>
-      <c r="H154">
-        <v>-0.105043398608501</v>
-      </c>
-      <c r="I154">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J154" t="s">
-        <v>20</v>
-      </c>
-      <c r="K154" t="s">
-        <v>925</v>
-      </c>
-      <c r="L154" t="s">
-        <v>20</v>
-      </c>
-      <c r="M154" t="s">
-        <v>925</v>
-      </c>
-      <c r="N154" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" ht="100" customHeight="1">
-      <c r="A155" t="s">
-        <v>916</v>
-      </c>
-      <c r="B155" t="s">
-        <v>908</v>
-      </c>
-      <c r="C155" t="s">
-        <v>926</v>
-      </c>
-      <c r="D155" t="s">
-        <v>927</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>-4.391354045424355</v>
-      </c>
-      <c r="G155">
-        <v>-0.3941269573145494</v>
-      </c>
-      <c r="H155">
-        <v>0.07151351918952853</v>
-      </c>
-      <c r="I155">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J155" t="s">
-        <v>20</v>
-      </c>
-      <c r="K155" t="s">
-        <v>928</v>
-      </c>
-      <c r="L155" t="s">
-        <v>20</v>
-      </c>
-      <c r="M155" t="s">
-        <v>928</v>
-      </c>
-      <c r="N155" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" ht="100" customHeight="1">
-      <c r="A156" t="s">
-        <v>916</v>
-      </c>
-      <c r="B156" t="s">
-        <v>908</v>
-      </c>
-      <c r="C156" t="s">
-        <v>929</v>
-      </c>
-      <c r="D156" t="s">
-        <v>930</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>-1.254350026102653</v>
-      </c>
-      <c r="G156">
-        <v>0.07791482835222729</v>
-      </c>
-      <c r="H156">
-        <v>-3.631581700657645</v>
-      </c>
-      <c r="I156">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J156" t="s">
-        <v>20</v>
-      </c>
-      <c r="K156" t="s">
-        <v>931</v>
-      </c>
-      <c r="L156" t="s">
-        <v>20</v>
-      </c>
-      <c r="M156" t="s">
-        <v>931</v>
-      </c>
-      <c r="N156" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" ht="100" customHeight="1">
-      <c r="A157" t="s">
-        <v>916</v>
-      </c>
-      <c r="B157" t="s">
-        <v>908</v>
-      </c>
-      <c r="C157" t="s">
-        <v>932</v>
-      </c>
-      <c r="D157" t="s">
-        <v>933</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>-1.97315269595596</v>
-      </c>
-      <c r="G157">
-        <v>-2.204532882268131</v>
-      </c>
-      <c r="H157">
-        <v>-0.03623662246089093</v>
-      </c>
-      <c r="I157">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J157" t="s">
-        <v>20</v>
-      </c>
-      <c r="K157" t="s">
-        <v>934</v>
-      </c>
-      <c r="L157" t="s">
-        <v>20</v>
-      </c>
-      <c r="M157" t="s">
-        <v>934</v>
-      </c>
-      <c r="N157" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" ht="100" customHeight="1">
-      <c r="A158" t="s">
-        <v>916</v>
-      </c>
-      <c r="B158" t="s">
-        <v>908</v>
-      </c>
-      <c r="C158" t="s">
-        <v>935</v>
-      </c>
-      <c r="D158" t="s">
-        <v>936</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>-2.03180568568802</v>
-      </c>
-      <c r="G158">
-        <v>-0.1665222561254269</v>
-      </c>
-      <c r="H158">
-        <v>-0.2656876724176883</v>
-      </c>
-      <c r="I158">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J158" t="s">
-        <v>20</v>
-      </c>
-      <c r="K158" t="s">
-        <v>937</v>
-      </c>
-      <c r="L158" t="s">
-        <v>20</v>
-      </c>
-      <c r="M158" t="s">
-        <v>937</v>
-      </c>
-      <c r="N158" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" ht="100" customHeight="1">
-      <c r="A159" t="s">
-        <v>916</v>
-      </c>
-      <c r="B159" t="s">
-        <v>908</v>
-      </c>
-      <c r="C159" t="s">
-        <v>938</v>
-      </c>
-      <c r="D159" t="s">
-        <v>939</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>-3.468463154134025</v>
-      </c>
-      <c r="G159">
-        <v>-1.854085091871405</v>
-      </c>
-      <c r="H159">
-        <v>-2.126565333906751</v>
-      </c>
-      <c r="I159">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J159" t="s">
-        <v>20</v>
-      </c>
-      <c r="K159" t="s">
-        <v>940</v>
-      </c>
-      <c r="L159" t="s">
-        <v>20</v>
-      </c>
-      <c r="M159" t="s">
-        <v>940</v>
-      </c>
-      <c r="N159" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" ht="100" customHeight="1">
-      <c r="A160" t="s">
-        <v>916</v>
-      </c>
-      <c r="B160" t="s">
-        <v>908</v>
-      </c>
-      <c r="C160" t="s">
-        <v>941</v>
-      </c>
-      <c r="D160" t="s">
-        <v>942</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>-3.296672667045248</v>
-      </c>
-      <c r="G160">
-        <v>-1.513480828701711</v>
-      </c>
-      <c r="H160">
-        <v>-0.2111024767737291</v>
-      </c>
-      <c r="I160">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J160" t="s">
-        <v>20</v>
-      </c>
-      <c r="K160" t="s">
-        <v>943</v>
-      </c>
-      <c r="L160" t="s">
-        <v>20</v>
-      </c>
-      <c r="M160" t="s">
-        <v>943</v>
-      </c>
-      <c r="N160" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" ht="100" customHeight="1">
-      <c r="A161" t="s">
-        <v>916</v>
-      </c>
-      <c r="B161" t="s">
-        <v>908</v>
-      </c>
-      <c r="C161" t="s">
-        <v>944</v>
-      </c>
-      <c r="D161" t="s">
-        <v>945</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>-3.349222852804477</v>
-      </c>
-      <c r="G161">
-        <v>-2.167981297417308</v>
-      </c>
-      <c r="H161">
-        <v>-0.1014759279585394</v>
-      </c>
-      <c r="I161">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J161" t="s">
-        <v>20</v>
-      </c>
-      <c r="K161" t="s">
-        <v>946</v>
-      </c>
-      <c r="L161" t="s">
-        <v>20</v>
-      </c>
-      <c r="M161" t="s">
-        <v>946</v>
-      </c>
-      <c r="N161" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" ht="100" customHeight="1">
-      <c r="A162" t="s">
-        <v>947</v>
-      </c>
-      <c r="B162" t="s">
-        <v>948</v>
-      </c>
-      <c r="C162" t="s">
-        <v>949</v>
-      </c>
-      <c r="D162" t="s">
-        <v>950</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>-3.987401349479755</v>
-      </c>
-      <c r="G162">
-        <v>-1.159231844631665</v>
-      </c>
-      <c r="H162">
-        <v>-0.8787608811105954</v>
-      </c>
-      <c r="I162">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J162" t="s">
-        <v>20</v>
-      </c>
-      <c r="K162" t="s">
-        <v>951</v>
-      </c>
-      <c r="L162" t="s">
-        <v>20</v>
-      </c>
-      <c r="M162" t="s">
-        <v>951</v>
-      </c>
-      <c r="N162" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" ht="100" customHeight="1">
-      <c r="A163" t="s">
-        <v>952</v>
-      </c>
-      <c r="B163" t="s">
-        <v>953</v>
-      </c>
-      <c r="C163" t="s">
-        <v>954</v>
-      </c>
-      <c r="D163" t="s">
-        <v>955</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
-        <v>-3.510178315110577</v>
-      </c>
-      <c r="G163">
-        <v>-0.2591854176697719</v>
-      </c>
-      <c r="H163">
-        <v>-0.309209789213875</v>
-      </c>
-      <c r="I163">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J163" t="s">
-        <v>20</v>
-      </c>
-      <c r="K163" t="s">
-        <v>956</v>
-      </c>
-      <c r="L163" t="s">
-        <v>20</v>
-      </c>
-      <c r="M163" t="s">
-        <v>956</v>
-      </c>
-      <c r="N163" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" ht="100" customHeight="1">
-      <c r="A164" t="s">
-        <v>957</v>
-      </c>
-      <c r="B164" t="s">
-        <v>958</v>
-      </c>
-      <c r="C164" t="s">
-        <v>959</v>
-      </c>
-      <c r="D164" t="s">
-        <v>960</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>-3.045871158521316</v>
-      </c>
-      <c r="G164">
-        <v>0.001155139296322494</v>
-      </c>
-      <c r="H164">
-        <v>-0.2685694909155877</v>
-      </c>
-      <c r="I164">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J164" t="s">
-        <v>20</v>
-      </c>
-      <c r="K164" t="s">
-        <v>961</v>
-      </c>
-      <c r="L164" t="s">
-        <v>20</v>
-      </c>
-      <c r="M164" t="s">
-        <v>961</v>
-      </c>
-      <c r="N164" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" ht="100" customHeight="1">
-      <c r="A165" t="s">
-        <v>962</v>
-      </c>
-      <c r="B165" t="s">
-        <v>963</v>
-      </c>
-      <c r="C165" t="s">
-        <v>964</v>
-      </c>
-      <c r="D165" t="s">
-        <v>965</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>-2.874100837339163</v>
-      </c>
-      <c r="G165">
-        <v>-2.038637896557456</v>
-      </c>
-      <c r="H165">
-        <v>-0.0663204409505862</v>
-      </c>
-      <c r="I165">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J165" t="s">
-        <v>20</v>
-      </c>
-      <c r="K165" t="s">
-        <v>966</v>
-      </c>
-      <c r="L165" t="s">
-        <v>20</v>
-      </c>
-      <c r="M165" t="s">
-        <v>966</v>
-      </c>
-      <c r="N165" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" ht="100" customHeight="1">
-      <c r="A166" t="s">
-        <v>967</v>
-      </c>
-      <c r="B166" t="s">
-        <v>968</v>
-      </c>
-      <c r="C166" t="s">
-        <v>969</v>
-      </c>
-      <c r="D166" t="s">
-        <v>970</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>-2.98124501323833</v>
-      </c>
-      <c r="G166">
-        <v>0.2963021875687883</v>
-      </c>
-      <c r="H166">
-        <v>-1.628437879040604</v>
-      </c>
-      <c r="I166">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J166" t="s">
-        <v>20</v>
-      </c>
-      <c r="K166" t="s">
-        <v>971</v>
-      </c>
-      <c r="L166" t="s">
-        <v>20</v>
-      </c>
-      <c r="M166" t="s">
-        <v>971</v>
-      </c>
-      <c r="N166" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" ht="100" customHeight="1">
-      <c r="A167" t="s">
-        <v>972</v>
-      </c>
-      <c r="B167" t="s">
-        <v>973</v>
-      </c>
-      <c r="C167" t="s">
-        <v>974</v>
-      </c>
-      <c r="D167" t="s">
-        <v>975</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>-2.938038585383829</v>
-      </c>
-      <c r="G167">
-        <v>-0.5303193838501286</v>
-      </c>
-      <c r="H167">
-        <v>-1.023839990408147</v>
-      </c>
-      <c r="I167">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J167" t="s">
-        <v>20</v>
-      </c>
-      <c r="K167" t="s">
-        <v>976</v>
-      </c>
-      <c r="L167" t="s">
-        <v>20</v>
-      </c>
-      <c r="M167" t="s">
-        <v>976</v>
-      </c>
-      <c r="N167" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" ht="100" customHeight="1">
-      <c r="A168" t="s">
-        <v>977</v>
-      </c>
-      <c r="B168" t="s">
-        <v>978</v>
-      </c>
-      <c r="C168" t="s">
-        <v>979</v>
-      </c>
-      <c r="D168" t="s">
-        <v>980</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>-2.955307708080298</v>
-      </c>
-      <c r="G168">
-        <v>0.2062122525996548</v>
-      </c>
-      <c r="H168">
-        <v>-1.164271238557398</v>
-      </c>
-      <c r="I168">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J168" t="s">
-        <v>20</v>
-      </c>
-      <c r="K168" t="s">
-        <v>981</v>
-      </c>
-      <c r="L168" t="s">
-        <v>20</v>
-      </c>
-      <c r="M168" t="s">
-        <v>981</v>
-      </c>
-      <c r="N168" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" ht="100" customHeight="1">
-      <c r="A169" t="s">
-        <v>982</v>
-      </c>
-      <c r="B169" t="s">
-        <v>983</v>
-      </c>
-      <c r="C169" t="s">
-        <v>984</v>
-      </c>
-      <c r="D169" t="s">
-        <v>985</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>-2.961377935720503</v>
-      </c>
-      <c r="G169">
-        <v>-2.367677354418078</v>
-      </c>
-      <c r="H169">
-        <v>-0.2820976278335452</v>
-      </c>
-      <c r="I169">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J169" t="s">
-        <v>20</v>
-      </c>
-      <c r="K169" t="s">
-        <v>986</v>
-      </c>
-      <c r="L169" t="s">
-        <v>20</v>
-      </c>
-      <c r="M169" t="s">
-        <v>986</v>
-      </c>
-      <c r="N169" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" ht="100" customHeight="1">
-      <c r="A170" t="s">
-        <v>987</v>
-      </c>
-      <c r="B170" t="s">
-        <v>988</v>
-      </c>
-      <c r="C170" t="s">
-        <v>989</v>
-      </c>
-      <c r="D170" t="s">
-        <v>990</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>-3.335200811692309</v>
-      </c>
-      <c r="G170">
-        <v>1.054971085922591</v>
-      </c>
-      <c r="H170">
-        <v>-1.333036368926107</v>
-      </c>
-      <c r="I170">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J170" t="s">
-        <v>20</v>
-      </c>
-      <c r="K170" t="s">
-        <v>991</v>
-      </c>
-      <c r="L170" t="s">
-        <v>20</v>
-      </c>
-      <c r="M170" t="s">
-        <v>991</v>
-      </c>
-      <c r="N170" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" ht="100" customHeight="1">
-      <c r="A171" t="s">
-        <v>992</v>
-      </c>
-      <c r="B171" t="s">
-        <v>993</v>
-      </c>
-      <c r="C171" t="s">
-        <v>994</v>
-      </c>
-      <c r="D171" t="s">
-        <v>995</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>-3.099658189213381</v>
-      </c>
-      <c r="G171">
-        <v>0.2672329782497136</v>
-      </c>
-      <c r="H171">
-        <v>-1.162687878726231</v>
-      </c>
-      <c r="I171">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J171" t="s">
-        <v>20</v>
-      </c>
-      <c r="K171" t="s">
-        <v>996</v>
-      </c>
-      <c r="L171" t="s">
-        <v>20</v>
-      </c>
-      <c r="M171" t="s">
-        <v>996</v>
-      </c>
-      <c r="N171" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" ht="100" customHeight="1">
-      <c r="A172" t="s">
-        <v>997</v>
-      </c>
-      <c r="B172" t="s">
-        <v>998</v>
-      </c>
-      <c r="C172" t="s">
-        <v>999</v>
-      </c>
-      <c r="D172" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>-3.98011235910492</v>
-      </c>
-      <c r="G172">
-        <v>-0.6571715774925875</v>
-      </c>
-      <c r="H172">
-        <v>-1.366847261124959</v>
-      </c>
-      <c r="I172">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J172" t="s">
-        <v>20</v>
-      </c>
-      <c r="K172" t="s">
-        <v>1001</v>
-      </c>
-      <c r="L172" t="s">
-        <v>20</v>
-      </c>
-      <c r="M172" t="s">
-        <v>1001</v>
-      </c>
-      <c r="N172" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" ht="100" customHeight="1">
-      <c r="A173" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C173" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D173" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>-3.357533200294902</v>
-      </c>
-      <c r="G173">
-        <v>0.4142181263477736</v>
-      </c>
-      <c r="H173">
-        <v>-1.554675949727844</v>
-      </c>
-      <c r="I173">
-        <v>4.970536696747911</v>
-      </c>
-      <c r="J173" t="s">
-        <v>20</v>
-      </c>
-      <c r="K173" t="s">
-        <v>1006</v>
-      </c>
-      <c r="L173" t="s">
-        <v>20</v>
-      </c>
-      <c r="M173" t="s">
-        <v>1006</v>
-      </c>
-      <c r="N173" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
